--- a/doc/template.xlsx
+++ b/doc/template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="564">
   <si>
     <t xml:space="preserve">Nazwa pełna</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">sp1,sp2,sp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APS dla Serwisu - poziom podstawowy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serwis – podstawowy</t>
   </si>
   <si>
     <t xml:space="preserve">unikalny identyfikator kompetencji (tylko małe litery i cyfry, bez spacji)</t>
@@ -2136,10 +2130,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2173,16 +2167,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2219,65 +2205,65 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="AMJ1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="2" t="n">
         <v>0.7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="2" t="n">
         <v>0.7</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="2" t="n">
         <v>0.7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2311,58 +2297,58 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="31.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="43.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="84.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="145.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>1</v>
@@ -2374,24 +2360,24 @@
         <v>0.7</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>1</v>
@@ -2403,24 +2389,24 @@
         <v>0.7</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="98.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>1</v>
@@ -2432,24 +2418,24 @@
         <v>0.7</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>1</v>
@@ -2461,24 +2447,24 @@
         <v>0.7</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="117.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>1</v>
@@ -2490,24 +2476,24 @@
         <v>0.7</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="117.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>1</v>
@@ -2519,27 +2505,27 @@
         <v>0.7</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1</v>
@@ -2551,27 +2537,27 @@
         <v>0.7</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>1</v>
@@ -2583,27 +2569,27 @@
         <v>0.7</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
@@ -2615,27 +2601,27 @@
         <v>0.7</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1</v>
@@ -2647,27 +2633,27 @@
         <v>0.7</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>1</v>
@@ -2679,27 +2665,27 @@
         <v>0.7</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>1</v>
@@ -2711,27 +2697,27 @@
         <v>0.7</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>1</v>
@@ -2743,24 +2729,24 @@
         <v>0.7</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="163.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="F15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>1</v>
@@ -2772,24 +2758,24 @@
         <v>0.7</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="117.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>1</v>
@@ -2801,24 +2787,24 @@
         <v>0.7</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="117.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>1</v>
@@ -2830,24 +2816,24 @@
         <v>0.7</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="127.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>1</v>
@@ -2859,27 +2845,27 @@
         <v>0.7</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="127.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>1</v>
@@ -2891,27 +2877,27 @@
         <v>0.7</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="127.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>1</v>
@@ -2923,27 +2909,27 @@
         <v>0.7</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="127.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>1</v>
@@ -2955,27 +2941,27 @@
         <v>0.7</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="127.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>1</v>
@@ -2987,27 +2973,27 @@
         <v>0.7</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="127.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>1</v>
@@ -3019,24 +3005,24 @@
         <v>0.7</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="117.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>1</v>
@@ -3048,24 +3034,24 @@
         <v>0.7</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>1</v>
@@ -3077,24 +3063,24 @@
         <v>0.7</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>1</v>
@@ -3106,27 +3092,27 @@
         <v>0.7</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>1</v>
@@ -3138,27 +3124,27 @@
         <v>0.7</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>1</v>
@@ -3170,27 +3156,27 @@
         <v>0.7</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>1</v>
@@ -3202,27 +3188,27 @@
         <v>0.7</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>1</v>
@@ -3234,24 +3220,24 @@
         <v>0.7</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>1</v>
@@ -3263,24 +3249,24 @@
         <v>0.7</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>1</v>
@@ -3292,24 +3278,24 @@
         <v>0.7</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>1</v>
@@ -3321,24 +3307,24 @@
         <v>0.7</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>1</v>
@@ -3350,24 +3336,24 @@
         <v>0.7</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>1</v>
@@ -3379,24 +3365,24 @@
         <v>0.7</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>1</v>
@@ -3408,24 +3394,24 @@
         <v>0.7</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>1</v>
@@ -3437,24 +3423,24 @@
         <v>0.7</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="135.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>1</v>
@@ -3466,24 +3452,24 @@
         <v>0.7</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="135.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>1</v>
@@ -3495,24 +3481,24 @@
         <v>0.7</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>1</v>
@@ -3524,7 +3510,7 @@
         <v>0.7</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3561,22 +3547,22 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3584,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="2" t="n">
@@ -3602,7 +3588,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="2" t="n">
@@ -3620,7 +3606,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="2" t="n">
@@ -3638,7 +3624,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="2" t="n">
@@ -3656,7 +3642,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="2" t="n">
@@ -3674,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="2" t="n">
@@ -3692,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="2" t="n">
@@ -3710,7 +3696,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="2" t="n">
@@ -3728,7 +3714,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="2" t="n">
@@ -3746,7 +3732,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="2" t="n">
@@ -3764,7 +3750,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="n">
@@ -3782,7 +3768,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="2" t="n">
@@ -3800,7 +3786,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="2" t="n">
@@ -3818,7 +3804,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="2" t="n">
@@ -3836,7 +3822,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="2" t="n">
@@ -3854,7 +3840,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="2" t="n">
@@ -3872,7 +3858,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="2" t="n">
@@ -3890,7 +3876,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="2" t="n">
@@ -3908,7 +3894,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="2" t="n">
@@ -3926,7 +3912,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="2" t="n">
@@ -3944,7 +3930,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="2" t="n">
@@ -3962,7 +3948,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="2" t="n">
@@ -3980,7 +3966,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="2" t="n">
@@ -3998,7 +3984,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="2" t="n">
@@ -4016,7 +4002,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="2" t="n">
@@ -4034,7 +4020,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="2" t="n">
@@ -4052,7 +4038,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="2" t="n">
@@ -4070,7 +4056,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="2" t="n">
@@ -4088,7 +4074,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="2" t="n">
@@ -4106,7 +4092,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="2" t="n">
@@ -4124,7 +4110,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="2" t="n">
@@ -4142,7 +4128,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="2" t="n">
@@ -4160,7 +4146,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="2" t="n">
@@ -4178,7 +4164,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="2" t="n">
@@ -4196,7 +4182,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="2" t="n">
@@ -4214,7 +4200,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="2" t="n">
@@ -4232,7 +4218,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="2" t="n">
@@ -4250,7 +4236,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="2" t="n">
@@ -4268,7 +4254,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="2" t="n">
@@ -4286,7 +4272,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="2" t="n">
@@ -4304,7 +4290,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="2" t="n">
@@ -4322,7 +4308,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="2" t="n">
@@ -4340,7 +4326,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="2" t="n">
@@ -4358,7 +4344,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="2" t="n">
@@ -4376,7 +4362,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="2" t="n">
@@ -4394,7 +4380,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="2" t="n">
@@ -4412,7 +4398,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="2" t="n">
@@ -4430,7 +4416,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="2" t="n">
@@ -4448,7 +4434,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="2" t="n">
@@ -4466,7 +4452,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="2" t="n">
@@ -4484,7 +4470,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="2" t="n">
@@ -4502,7 +4488,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="2" t="n">
@@ -4520,7 +4506,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="2" t="n">
@@ -4538,7 +4524,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="2" t="n">
@@ -4556,7 +4542,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="2" t="n">
@@ -4574,7 +4560,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="2" t="n">
@@ -4592,7 +4578,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="2" t="n">
@@ -4610,7 +4596,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="2" t="n">
@@ -4628,7 +4614,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="2" t="n">
@@ -4646,7 +4632,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="2" t="n">
@@ -4664,7 +4650,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="2" t="n">
@@ -4682,7 +4668,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="2" t="n">
@@ -4700,7 +4686,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="2" t="n">
@@ -4718,7 +4704,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="2" t="n">
@@ -4736,7 +4722,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="2" t="n">
@@ -4754,7 +4740,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="2" t="n">
@@ -4772,7 +4758,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="2" t="n">
@@ -4790,7 +4776,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="2" t="n">
@@ -4808,7 +4794,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="2" t="n">
@@ -4826,7 +4812,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="2" t="n">
@@ -4844,7 +4830,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="2" t="n">
@@ -4862,7 +4848,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="2" t="n">
@@ -4880,7 +4866,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="2" t="n">
@@ -4898,7 +4884,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="2" t="n">
@@ -4916,7 +4902,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="2" t="n">
@@ -4934,7 +4920,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="2" t="n">
@@ -4952,7 +4938,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="2" t="n">
@@ -4970,7 +4956,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="2" t="n">
@@ -4988,7 +4974,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="2" t="n">
@@ -5006,7 +4992,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="2" t="n">
@@ -5024,7 +5010,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="2" t="n">
@@ -5042,7 +5028,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="2" t="n">
@@ -5060,7 +5046,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="2" t="n">
@@ -5078,7 +5064,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="2" t="n">
@@ -5096,7 +5082,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="2" t="n">
@@ -5114,7 +5100,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="2" t="n">
@@ -5132,7 +5118,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="2" t="n">
@@ -5150,7 +5136,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="2" t="n">
@@ -5168,7 +5154,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="2" t="n">
@@ -5186,7 +5172,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="2" t="n">
@@ -5204,7 +5190,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="2" t="n">
@@ -5222,7 +5208,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="2" t="n">
@@ -5240,7 +5226,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="2" t="n">
@@ -5258,7 +5244,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="2" t="n">
@@ -5276,7 +5262,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="2" t="n">
@@ -5294,7 +5280,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="2" t="n">
@@ -5312,7 +5298,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="2" t="n">
@@ -5330,7 +5316,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="2" t="n">
@@ -5348,7 +5334,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="2" t="n">
@@ -5366,7 +5352,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="2" t="n">
@@ -5384,7 +5370,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="2" t="n">
@@ -5402,7 +5388,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="2" t="n">
@@ -5420,7 +5406,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="2" t="n">
@@ -5438,7 +5424,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="2" t="n">
@@ -5456,7 +5442,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="2" t="n">
@@ -5474,7 +5460,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>0</v>
@@ -5491,7 +5477,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -5508,7 +5494,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>0</v>
@@ -5525,7 +5511,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>0</v>
@@ -5542,7 +5528,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>0</v>
@@ -5559,7 +5545,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>0</v>
@@ -5576,7 +5562,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>0</v>
@@ -5593,7 +5579,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0</v>
@@ -5610,7 +5596,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>0</v>
@@ -5627,7 +5613,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>0</v>
@@ -5644,7 +5630,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>0</v>
@@ -5661,7 +5647,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>0</v>
@@ -5678,7 +5664,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>0</v>
@@ -5695,7 +5681,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>0</v>
@@ -5712,10 +5698,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0</v>
@@ -5732,10 +5718,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>0</v>
@@ -5752,7 +5738,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>0</v>
@@ -5769,10 +5755,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -5789,10 +5775,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>0</v>
@@ -5809,7 +5795,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0</v>
@@ -5826,7 +5812,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D127" s="2" t="n">
         <v>0</v>
@@ -5843,7 +5829,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D128" s="2" t="n">
         <v>0</v>
@@ -5860,10 +5846,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D129" s="2" t="n">
         <v>0</v>
@@ -5880,10 +5866,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>0</v>
@@ -5900,7 +5886,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D131" s="2" t="n">
         <v>0</v>
@@ -5917,10 +5903,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>0</v>
@@ -5937,7 +5923,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>0</v>
@@ -5954,7 +5940,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D134" s="2" t="n">
         <v>0</v>
@@ -5971,7 +5957,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D135" s="2" t="n">
         <v>0</v>
@@ -5988,7 +5974,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D136" s="2" t="n">
         <v>0</v>
@@ -6005,7 +5991,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D137" s="2" t="n">
         <v>0</v>
@@ -6022,7 +6008,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D138" s="2" t="n">
         <v>0</v>
@@ -6039,7 +6025,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D139" s="2" t="n">
         <v>0</v>
@@ -6056,7 +6042,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D140" s="2" t="n">
         <v>0</v>
@@ -6073,7 +6059,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D141" s="2" t="n">
         <v>0</v>
@@ -6090,7 +6076,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D142" s="2" t="n">
         <v>0</v>
@@ -6107,7 +6093,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>0</v>
@@ -6124,7 +6110,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D144" s="2" t="n">
         <v>0</v>
@@ -6141,7 +6127,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D145" s="2" t="n">
         <v>0</v>
@@ -6158,7 +6144,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D146" s="2" t="n">
         <v>0</v>
@@ -6175,7 +6161,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>0</v>
@@ -6192,7 +6178,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>0</v>
@@ -6209,7 +6195,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>0</v>
@@ -6226,7 +6212,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D150" s="2" t="n">
         <v>0</v>
@@ -6243,7 +6229,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D151" s="2" t="n">
         <v>0</v>
@@ -6260,7 +6246,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D152" s="2" t="n">
         <v>0</v>
@@ -6277,7 +6263,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D153" s="2" t="n">
         <v>0</v>
@@ -6294,7 +6280,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>0</v>
@@ -6311,7 +6297,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D155" s="2" t="n">
         <v>0</v>
@@ -6328,7 +6314,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D156" s="2" t="n">
         <v>0</v>
@@ -6345,7 +6331,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D157" s="2" t="n">
         <v>0</v>
@@ -6362,7 +6348,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D158" s="2" t="n">
         <v>0</v>
@@ -6379,7 +6365,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>0</v>
@@ -6396,7 +6382,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D160" s="2" t="n">
         <v>0</v>
@@ -6413,7 +6399,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D161" s="2" t="n">
         <v>0</v>
@@ -6430,7 +6416,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D162" s="2" t="n">
         <v>0</v>
@@ -6447,7 +6433,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D163" s="2" t="n">
         <v>0</v>
@@ -6464,7 +6450,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D164" s="2" t="n">
         <v>0</v>
@@ -6481,7 +6467,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D165" s="2" t="n">
         <v>0</v>
@@ -6498,7 +6484,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D166" s="2" t="n">
         <v>0</v>
@@ -6515,7 +6501,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>0</v>
@@ -6532,7 +6518,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D168" s="2" t="n">
         <v>0</v>
@@ -6549,7 +6535,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>0</v>
@@ -6566,7 +6552,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D170" s="2" t="n">
         <v>0</v>
@@ -6583,7 +6569,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>0</v>
@@ -6600,7 +6586,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>0</v>
@@ -6617,7 +6603,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D173" s="2" t="n">
         <v>0</v>
@@ -6634,7 +6620,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D174" s="2" t="n">
         <v>0</v>
@@ -6651,7 +6637,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D175" s="2" t="n">
         <v>0</v>
@@ -6668,7 +6654,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D176" s="2" t="n">
         <v>0</v>
@@ -6685,7 +6671,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D177" s="2" t="n">
         <v>0</v>
@@ -6702,7 +6688,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D178" s="2" t="n">
         <v>0</v>
@@ -6719,7 +6705,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D179" s="2" t="n">
         <v>0</v>
@@ -6736,7 +6722,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D180" s="2" t="n">
         <v>0</v>
@@ -6753,7 +6739,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>0</v>
@@ -6770,7 +6756,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D182" s="2" t="n">
         <v>0</v>
@@ -6787,7 +6773,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D183" s="2" t="n">
         <v>0</v>
@@ -6804,7 +6790,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>0</v>
@@ -6821,7 +6807,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D185" s="2" t="n">
         <v>0</v>
@@ -6838,7 +6824,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D186" s="2" t="n">
         <v>0</v>
@@ -6855,7 +6841,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D187" s="2" t="n">
         <v>0</v>
@@ -6872,10 +6858,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>0</v>
@@ -6892,7 +6878,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>0</v>
@@ -6909,7 +6895,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>0</v>
@@ -6926,7 +6912,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D191" s="2" t="n">
         <v>0</v>
@@ -6943,7 +6929,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D192" s="2" t="n">
         <v>0</v>
@@ -6960,7 +6946,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D193" s="2" t="n">
         <v>0</v>
@@ -6977,7 +6963,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D194" s="2" t="n">
         <v>0</v>
@@ -6994,7 +6980,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>0</v>
@@ -7011,7 +6997,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>0</v>
@@ -7028,7 +7014,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>0</v>
@@ -7045,7 +7031,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>0</v>
@@ -7062,7 +7048,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D199" s="2" t="n">
         <v>0</v>
@@ -7079,7 +7065,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>0</v>
@@ -7096,7 +7082,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>0</v>
@@ -7113,7 +7099,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>0</v>
@@ -7130,7 +7116,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D203" s="2" t="n">
         <v>0</v>
@@ -7147,7 +7133,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D204" s="2" t="n">
         <v>0</v>
@@ -7164,7 +7150,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D205" s="2" t="n">
         <v>0</v>
@@ -7181,7 +7167,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D206" s="2" t="n">
         <v>0</v>
@@ -7198,7 +7184,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D207" s="2" t="n">
         <v>0</v>
@@ -7215,7 +7201,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D208" s="2" t="n">
         <v>0</v>
@@ -7232,7 +7218,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D209" s="2" t="n">
         <v>0</v>
@@ -7249,7 +7235,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D210" s="2" t="n">
         <v>0</v>
@@ -7266,7 +7252,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D211" s="2" t="n">
         <v>0</v>
@@ -7283,7 +7269,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D212" s="2" t="n">
         <v>0</v>
@@ -7300,7 +7286,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D213" s="2" t="n">
         <v>0</v>
@@ -7317,7 +7303,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>0</v>
@@ -7334,7 +7320,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D215" s="2" t="n">
         <v>0</v>
@@ -7351,7 +7337,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D216" s="2" t="n">
         <v>0</v>
@@ -7368,7 +7354,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D217" s="2" t="n">
         <v>0</v>
@@ -7385,7 +7371,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D218" s="2" t="n">
         <v>0</v>
@@ -7402,7 +7388,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D219" s="2" t="n">
         <v>0</v>
@@ -7419,7 +7405,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>0</v>
@@ -7436,7 +7422,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D221" s="2" t="n">
         <v>0</v>
@@ -7453,7 +7439,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D222" s="2" t="n">
         <v>0</v>
@@ -7470,7 +7456,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>0</v>
@@ -7487,7 +7473,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D224" s="2" t="n">
         <v>0</v>
@@ -7504,7 +7490,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D225" s="2" t="n">
         <v>0</v>
@@ -7521,7 +7507,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D226" s="2" t="n">
         <v>0</v>
@@ -7538,7 +7524,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D227" s="2" t="n">
         <v>0</v>
@@ -7555,7 +7541,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D228" s="2" t="n">
         <v>0</v>
@@ -7572,7 +7558,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>0</v>
@@ -7589,7 +7575,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D230" s="2" t="n">
         <v>0</v>
@@ -7606,7 +7592,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>0</v>
@@ -7623,7 +7609,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D232" s="2" t="n">
         <v>0</v>
@@ -7640,7 +7626,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>0</v>
@@ -7657,7 +7643,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>0</v>
@@ -7674,7 +7660,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>0</v>
@@ -7691,7 +7677,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>0</v>
@@ -7708,7 +7694,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D237" s="2" t="n">
         <v>0</v>
@@ -7725,7 +7711,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>0</v>
@@ -7742,7 +7728,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D239" s="2" t="n">
         <v>0</v>
@@ -7759,7 +7745,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D240" s="2" t="n">
         <v>0</v>
@@ -7776,7 +7762,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D241" s="2" t="n">
         <v>0</v>
@@ -7793,7 +7779,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D242" s="2" t="n">
         <v>0</v>
@@ -7810,7 +7796,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>0</v>
@@ -7827,7 +7813,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D244" s="2" t="n">
         <v>0</v>
@@ -7844,7 +7830,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>0</v>
@@ -7861,7 +7847,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D246" s="2" t="n">
         <v>0</v>
@@ -7878,7 +7864,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D247" s="2" t="n">
         <v>0</v>
@@ -7895,7 +7881,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D248" s="2" t="n">
         <v>0</v>
@@ -7912,7 +7898,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>0</v>
@@ -7929,7 +7915,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D250" s="2" t="n">
         <v>0</v>
@@ -7946,7 +7932,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D251" s="2" t="n">
         <v>0</v>
@@ -7963,7 +7949,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D252" s="2" t="n">
         <v>0</v>
@@ -7980,7 +7966,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>0</v>
@@ -7997,7 +7983,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>0</v>
@@ -8014,7 +8000,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>0</v>
@@ -8031,7 +8017,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D256" s="2" t="n">
         <v>0</v>
@@ -8048,10 +8034,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>0</v>
@@ -8068,10 +8054,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>0</v>
@@ -8088,10 +8074,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>0</v>
@@ -8108,10 +8094,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D260" s="2" t="n">
         <v>0</v>
@@ -8128,10 +8114,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D261" s="2" t="n">
         <v>0</v>
@@ -8148,10 +8134,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>0</v>
@@ -8168,10 +8154,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>0</v>
@@ -8188,10 +8174,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D264" s="2" t="n">
         <v>0</v>
@@ -8208,10 +8194,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D265" s="2" t="n">
         <v>0</v>
@@ -8228,10 +8214,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D266" s="2" t="n">
         <v>0</v>
@@ -8248,10 +8234,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D267" s="2" t="n">
         <v>0</v>
@@ -8268,10 +8254,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D268" s="2" t="n">
         <v>0</v>
@@ -8288,10 +8274,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D269" s="2" t="n">
         <v>0</v>
@@ -8308,10 +8294,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D270" s="2" t="n">
         <v>0</v>
@@ -8328,10 +8314,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D271" s="2" t="n">
         <v>0</v>
@@ -8348,7 +8334,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D272" s="2" t="n">
         <v>0</v>
@@ -8365,7 +8351,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D273" s="2" t="n">
         <v>0</v>
@@ -8382,7 +8368,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>0</v>
@@ -8399,7 +8385,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>0</v>
@@ -8416,7 +8402,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D276" s="2" t="n">
         <v>0</v>
@@ -8433,7 +8419,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D277" s="2" t="n">
         <v>0</v>
@@ -8450,10 +8436,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D278" s="2" t="n">
         <v>0</v>
@@ -8470,10 +8456,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D279" s="2" t="n">
         <v>0</v>
@@ -8490,10 +8476,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>0</v>
@@ -8510,10 +8496,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D281" s="2" t="n">
         <v>0</v>
@@ -8530,10 +8516,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>0</v>
@@ -8550,7 +8536,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D283" s="2" t="n">
         <v>0</v>
@@ -8567,7 +8553,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>0</v>
@@ -8584,7 +8570,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D285" s="2" t="n">
         <v>0</v>
@@ -8601,7 +8587,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>0</v>
@@ -8618,7 +8604,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>0</v>
@@ -8635,7 +8621,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D288" s="2" t="n">
         <v>0</v>
@@ -8652,7 +8638,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D289" s="2" t="n">
         <v>0</v>
@@ -8669,7 +8655,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D290" s="2" t="n">
         <v>0</v>
@@ -8686,7 +8672,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D291" s="2" t="n">
         <v>0</v>
@@ -8703,7 +8689,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D292" s="2" t="n">
         <v>0</v>
@@ -8720,7 +8706,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D293" s="2" t="n">
         <v>0</v>
@@ -8737,7 +8723,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D294" s="2" t="n">
         <v>0</v>
@@ -8754,7 +8740,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D295" s="2" t="n">
         <v>0</v>
@@ -8771,7 +8757,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>0</v>
@@ -8788,7 +8774,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D297" s="2" t="n">
         <v>0</v>
@@ -8805,7 +8791,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D298" s="2" t="n">
         <v>0</v>
@@ -8822,7 +8808,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D299" s="2" t="n">
         <v>0</v>
@@ -8839,7 +8825,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D300" s="2" t="n">
         <v>0</v>
@@ -8856,7 +8842,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D301" s="2" t="n">
         <v>0</v>
@@ -8873,7 +8859,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>0</v>
@@ -8890,7 +8876,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D303" s="2" t="n">
         <v>0</v>
@@ -8907,7 +8893,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>0</v>
@@ -8924,7 +8910,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D305" s="2" t="n">
         <v>0</v>
@@ -8941,7 +8927,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D306" s="2" t="n">
         <v>0</v>
@@ -8958,7 +8944,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>0</v>
@@ -8975,7 +8961,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>0</v>
@@ -8992,7 +8978,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D309" s="2" t="n">
         <v>0</v>
@@ -9009,7 +8995,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D310" s="2" t="n">
         <v>0</v>
@@ -9026,7 +9012,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D311" s="2" t="n">
         <v>0</v>
@@ -9043,7 +9029,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D312" s="2" t="n">
         <v>0</v>
@@ -9060,7 +9046,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D313" s="2" t="n">
         <v>0</v>
@@ -9077,7 +9063,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>0</v>
@@ -9094,7 +9080,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>0</v>
@@ -9111,7 +9097,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D316" s="2" t="n">
         <v>0</v>
@@ -9128,7 +9114,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>0</v>
@@ -9145,7 +9131,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>0</v>
@@ -9162,7 +9148,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>0</v>
@@ -9179,7 +9165,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>0</v>
@@ -9196,7 +9182,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D321" s="2" t="n">
         <v>0</v>
@@ -9213,7 +9199,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D322" s="2" t="n">
         <v>0</v>
@@ -9230,7 +9216,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D323" s="2" t="n">
         <v>0</v>
@@ -9247,7 +9233,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D324" s="2" t="n">
         <v>0</v>
@@ -9264,7 +9250,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>0</v>
@@ -9281,7 +9267,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>0</v>
@@ -9298,7 +9284,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>0</v>
@@ -9315,7 +9301,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>0</v>
@@ -9332,7 +9318,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>0</v>
@@ -9349,7 +9335,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D330" s="2" t="n">
         <v>0</v>
@@ -9366,7 +9352,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D331" s="2" t="n">
         <v>0</v>
@@ -9383,7 +9369,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D332" s="2" t="n">
         <v>0</v>
@@ -9400,7 +9386,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>0</v>
@@ -9417,7 +9403,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>0</v>
@@ -9434,7 +9420,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>0</v>
@@ -9451,7 +9437,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>0</v>
@@ -9468,7 +9454,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>0</v>
@@ -9485,7 +9471,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>0</v>
@@ -9502,7 +9488,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>0</v>
@@ -9519,7 +9505,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>0</v>
@@ -9536,7 +9522,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>0</v>
@@ -9553,7 +9539,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D342" s="2" t="n">
         <v>0</v>
@@ -9570,7 +9556,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D343" s="2" t="n">
         <v>0</v>
@@ -9587,7 +9573,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D344" s="2" t="n">
         <v>0</v>
@@ -9604,7 +9590,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D345" s="2" t="n">
         <v>0</v>
@@ -9621,7 +9607,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>0</v>
@@ -9638,7 +9624,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D347" s="2" t="n">
         <v>0</v>
@@ -9655,7 +9641,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D348" s="2" t="n">
         <v>0</v>
@@ -9672,7 +9658,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D349" s="2" t="n">
         <v>0</v>
@@ -9689,7 +9675,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>0</v>
@@ -9706,7 +9692,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D351" s="2" t="n">
         <v>0</v>
@@ -9723,7 +9709,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D352" s="2" t="n">
         <v>0</v>
@@ -9740,7 +9726,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D353" s="2" t="n">
         <v>0</v>
@@ -9757,7 +9743,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>0</v>
@@ -9774,7 +9760,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D355" s="2" t="n">
         <v>0</v>
@@ -9791,7 +9777,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>0</v>
@@ -9808,7 +9794,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D357" s="2" t="n">
         <v>0</v>
@@ -9825,7 +9811,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D358" s="2" t="n">
         <v>0</v>
@@ -9842,7 +9828,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D359" s="2" t="n">
         <v>0</v>
@@ -9859,7 +9845,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D360" s="2" t="n">
         <v>0</v>
@@ -9876,7 +9862,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D361" s="2" t="n">
         <v>0</v>
@@ -9893,7 +9879,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D362" s="2" t="n">
         <v>0</v>
@@ -9910,7 +9896,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D363" s="2" t="n">
         <v>0</v>
@@ -9927,7 +9913,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D364" s="2" t="n">
         <v>0</v>
@@ -9944,7 +9930,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D365" s="2" t="n">
         <v>0</v>
@@ -9961,7 +9947,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D366" s="2" t="n">
         <v>0</v>
@@ -9978,7 +9964,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D367" s="2" t="n">
         <v>0</v>
@@ -9995,7 +9981,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D368" s="2" t="n">
         <v>0</v>
@@ -10012,7 +9998,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D369" s="2" t="n">
         <v>0</v>
@@ -10029,7 +10015,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D370" s="2" t="n">
         <v>0</v>
@@ -10046,7 +10032,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D371" s="2" t="n">
         <v>0</v>
@@ -10063,7 +10049,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D372" s="2" t="n">
         <v>0</v>
@@ -10080,7 +10066,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D373" s="2" t="n">
         <v>0</v>
@@ -10097,7 +10083,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D374" s="2" t="n">
         <v>0</v>
@@ -10114,7 +10100,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D375" s="2" t="n">
         <v>0</v>
@@ -10131,7 +10117,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D376" s="2" t="n">
         <v>0</v>
@@ -10148,7 +10134,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>0</v>
@@ -10165,7 +10151,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D378" s="2" t="n">
         <v>0</v>
@@ -10182,7 +10168,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D379" s="2" t="n">
         <v>0</v>
@@ -10199,7 +10185,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D380" s="2" t="n">
         <v>0</v>
@@ -10216,7 +10202,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D381" s="2" t="n">
         <v>0</v>
@@ -10233,7 +10219,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D382" s="2" t="n">
         <v>0</v>
@@ -10250,7 +10236,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D383" s="2" t="n">
         <v>0</v>
@@ -10267,7 +10253,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D384" s="2" t="n">
         <v>0</v>
@@ -10284,7 +10270,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D385" s="2" t="n">
         <v>0</v>
@@ -10301,7 +10287,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D386" s="2" t="n">
         <v>0</v>
@@ -10318,7 +10304,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D387" s="2" t="n">
         <v>0</v>
@@ -10335,7 +10321,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D388" s="2" t="n">
         <v>0</v>
@@ -10352,7 +10338,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D389" s="2" t="n">
         <v>0</v>
@@ -10369,7 +10355,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D390" s="2" t="n">
         <v>0</v>
@@ -10386,7 +10372,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D391" s="2" t="n">
         <v>0</v>
@@ -10403,7 +10389,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D392" s="2" t="n">
         <v>0</v>
@@ -10420,7 +10406,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D393" s="2" t="n">
         <v>0</v>
@@ -10437,7 +10423,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D394" s="2" t="n">
         <v>0</v>
@@ -10454,7 +10440,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D395" s="2" t="n">
         <v>0</v>
@@ -10471,7 +10457,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D396" s="2" t="n">
         <v>0</v>
@@ -10488,7 +10474,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D397" s="2" t="n">
         <v>0</v>
@@ -10505,7 +10491,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D398" s="2" t="n">
         <v>0</v>
@@ -10522,7 +10508,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D399" s="2" t="n">
         <v>0</v>
@@ -10539,7 +10525,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D400" s="2" t="n">
         <v>0</v>
@@ -10556,7 +10542,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D401" s="2" t="n">
         <v>0</v>
@@ -10573,7 +10559,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D402" s="2" t="n">
         <v>0</v>
@@ -10590,7 +10576,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D403" s="2" t="n">
         <v>0</v>
@@ -10607,7 +10593,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D404" s="2" t="n">
         <v>0</v>
@@ -10624,7 +10610,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D405" s="2" t="n">
         <v>0</v>
@@ -10641,7 +10627,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D406" s="2" t="n">
         <v>0</v>
@@ -10658,7 +10644,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D407" s="2" t="n">
         <v>0</v>
@@ -10675,7 +10661,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D408" s="2" t="n">
         <v>0</v>
@@ -10692,7 +10678,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D409" s="2" t="n">
         <v>0</v>
@@ -10709,7 +10695,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D410" s="2" t="n">
         <v>0</v>
@@ -10726,7 +10712,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D411" s="2" t="n">
         <v>0</v>
@@ -10743,7 +10729,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D412" s="2" t="n">
         <v>0</v>
@@ -10760,7 +10746,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D413" s="2" t="n">
         <v>0</v>
@@ -10777,7 +10763,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D414" s="2" t="n">
         <v>0</v>
@@ -10794,7 +10780,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D415" s="2" t="n">
         <v>0</v>
@@ -10811,7 +10797,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D416" s="2" t="n">
         <v>0</v>
@@ -10828,7 +10814,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D417" s="2" t="n">
         <v>0</v>
@@ -10845,7 +10831,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D418" s="2" t="n">
         <v>0</v>
@@ -10862,7 +10848,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D419" s="2" t="n">
         <v>0</v>
@@ -10879,7 +10865,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D420" s="2" t="n">
         <v>0</v>
@@ -10896,7 +10882,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D421" s="2" t="n">
         <v>0</v>
@@ -10913,7 +10899,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D422" s="2" t="n">
         <v>0</v>
@@ -10930,7 +10916,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D423" s="2" t="n">
         <v>0</v>
@@ -10947,7 +10933,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D424" s="2" t="n">
         <v>0</v>
@@ -10964,7 +10950,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D425" s="2" t="n">
         <v>0</v>
@@ -10981,7 +10967,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D426" s="2" t="n">
         <v>0</v>
@@ -10998,7 +10984,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D427" s="2" t="n">
         <v>0</v>
@@ -11015,7 +11001,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D428" s="2" t="n">
         <v>0</v>
@@ -11032,7 +11018,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D429" s="2" t="n">
         <v>0</v>
@@ -11049,7 +11035,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D430" s="2" t="n">
         <v>0</v>
@@ -11066,7 +11052,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D431" s="2" t="n">
         <v>0</v>
@@ -11083,7 +11069,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D432" s="2" t="n">
         <v>0</v>
@@ -11100,7 +11086,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D433" s="2" t="n">
         <v>0</v>
@@ -11117,7 +11103,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D434" s="2" t="n">
         <v>0</v>
@@ -11134,7 +11120,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D435" s="2" t="n">
         <v>0</v>
@@ -11151,7 +11137,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D436" s="2" t="n">
         <v>0</v>
@@ -11168,7 +11154,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D437" s="2" t="n">
         <v>0</v>
@@ -11185,7 +11171,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D438" s="2" t="n">
         <v>0</v>
@@ -11202,7 +11188,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D439" s="2" t="n">
         <v>0</v>
@@ -11219,7 +11205,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D440" s="2" t="n">
         <v>0</v>
@@ -11236,7 +11222,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D441" s="2" t="n">
         <v>0</v>
@@ -11253,7 +11239,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D442" s="2" t="n">
         <v>0</v>
@@ -11270,7 +11256,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D443" s="2" t="n">
         <v>0</v>
@@ -11287,7 +11273,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D444" s="2" t="n">
         <v>0</v>
@@ -11304,7 +11290,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D445" s="2" t="n">
         <v>0</v>
@@ -11321,7 +11307,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D446" s="2" t="n">
         <v>0</v>
@@ -11338,7 +11324,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D447" s="2" t="n">
         <v>0</v>
@@ -11355,7 +11341,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D448" s="2" t="n">
         <v>0</v>
@@ -11372,7 +11358,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D449" s="2" t="n">
         <v>0</v>
@@ -11389,7 +11375,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D450" s="2" t="n">
         <v>0</v>
@@ -11406,7 +11392,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D451" s="2" t="n">
         <v>0</v>
@@ -11423,7 +11409,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D452" s="2" t="n">
         <v>0</v>
@@ -11440,7 +11426,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D453" s="2" t="n">
         <v>0</v>
@@ -11457,7 +11443,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D454" s="2" t="n">
         <v>0</v>
@@ -11474,7 +11460,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D455" s="2" t="n">
         <v>0</v>
@@ -11491,7 +11477,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D456" s="2" t="n">
         <v>0</v>
@@ -11508,7 +11494,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D457" s="2" t="n">
         <v>0</v>
@@ -11525,7 +11511,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D458" s="2" t="n">
         <v>0</v>
@@ -11542,7 +11528,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D459" s="2" t="n">
         <v>0</v>
@@ -11559,7 +11545,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D460" s="2" t="n">
         <v>0</v>

--- a/doc/template.xlsx
+++ b/doc/template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -2130,10 +2130,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2165,10 +2165,6 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
